--- a/DB1.xlsx
+++ b/DB1.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/E0F97C117A9B75D3/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRPL-MIS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{DD1B5C7B-8323-4158-A5C0-A3A13AC48956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFAB4103-E2EB-485A-8C96-48CC5F693177}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D2BA26-0B38-4EDB-9613-519BD7593376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="NativeTimeline_Date">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="397" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,8 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -138,7 +136,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
+              <c:f>Charts!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -440,7 +438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$8</c:f>
+              <c:f>Charts!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -457,13 +455,13 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>453</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1054</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +477,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
+              <c:f>Charts!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -515,7 +513,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -544,30 +542,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$8</c:f>
+              <c:f>Charts!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,7 +581,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
+              <c:f>Charts!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +617,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -648,7 +646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$8</c:f>
+              <c:f>Charts!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -665,13 +663,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +702,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Charts!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,7 +778,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -809,7 +807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$8</c:f>
+              <c:f>Charts!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -848,7 +846,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Charts!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,7 +922,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -953,30 +951,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$8</c:f>
+              <c:f>Charts!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>792</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>328</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>453</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1054</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1006,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>Charts!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1028,6 +1026,243 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3901C495-6CD7-4E24-BB3F-B10F415D2D21}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4048CFD-4CD4-4EC6-876A-919EF7404891}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7808FD83-0867-4BA6-AA1E-B5A7ABA6CB34}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B1E9DD39-2AF2-491D-BEF7-FB59B61DCA25}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D9659ED0-9EEB-4026-A742-6EB8F735652A}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D3B82C6-1CA7-4FDB-9F31-6AE13033828A}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7D5DF9C-9C64-43B9-89E7-C55D8B53DF62}" type="CELLRANGE">
+                      <a:rPr lang="en-IN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-728F-4C72-958E-A13D9E775273}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1059,7 +1294,7 @@
             </c:txPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1067,6 +1302,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1087,7 +1323,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Charts!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1116,36 +1352,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$8</c:f>
+              <c:f>Charts!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>792</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>328</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1122</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Charts!$I$2:$I$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>455</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>354</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>497</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>-203</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>142</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E5B-4A1F-95D9-5F2D82EC734A}"/>
             </c:ext>
@@ -1421,7 +1686,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DB1.xlsx]Sheet2!PivotTable1</c:name>
+    <c:name>[DB1.xlsx]Charts!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1606,7 +1871,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$21</c:f>
+              <c:f>Charts!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1627,7 +1892,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$22:$A$114</c:f>
+              <c:f>Charts!$A$22:$A$114</c:f>
               <c:strCache>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
@@ -1911,7 +2176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$22:$B$114</c:f>
+              <c:f>Charts!$B$22:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
@@ -2220,7 +2485,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$21</c:f>
+              <c:f>Charts!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2508,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$22:$A$114</c:f>
+              <c:f>Charts!$A$22:$A$114</c:f>
               <c:strCache>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
@@ -2527,7 +2792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$22:$C$114</c:f>
+              <c:f>Charts!$C$22:$C$114</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
                 <c:ptCount val="92"/>
@@ -5181,7 +5446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85772E0B-77E8-4940-A816-476CE5C75948}" name="PivotTable1" cacheId="397" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85772E0B-77E8-4940-A816-476CE5C75948}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A21:C114" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" numFmtId="167" outline="0" showAll="0">
@@ -5607,23 +5872,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="32" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45809"/>
-            <customFilter operator="lessThanOrEqual" val="45900"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5968,8 +6216,7 @@
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
   </pivotTables>
-  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="900451629" filterType="dateBetween">
-    <selection startDate="2025-06-01T00:00:00" endDate="2025-08-31T00:00:00"/>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="900451629" filterType="unknown">
     <bounds startDate="2025-01-01T00:00:00" endDate="2026-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -5977,30 +6224,30 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="Date" xr10:uid="{84775FCE-1D07-4489-A132-F45D27B43227}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2025-04-11T00:00:00"/>
+  <timeline name="Date" xr10:uid="{84775FCE-1D07-4489-A132-F45D27B43227}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2025-05-20T00:00:00"/>
 </timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6032,7 +6279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45778</v>
       </c>
@@ -6065,7 +6312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45778</v>
       </c>
@@ -6098,7 +6345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45778</v>
       </c>
@@ -6131,7 +6378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45778</v>
       </c>
@@ -6164,7 +6411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45778</v>
       </c>
@@ -6197,7 +6444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45778</v>
       </c>
@@ -6230,7 +6477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45778</v>
       </c>
@@ -6263,7 +6510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45809</v>
       </c>
@@ -6295,7 +6542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45809</v>
       </c>
@@ -6327,7 +6574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45809</v>
       </c>
@@ -6359,7 +6606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45809</v>
       </c>
@@ -6391,7 +6638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45809</v>
       </c>
@@ -6423,7 +6670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45809</v>
       </c>
@@ -6455,7 +6702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45809</v>
       </c>
@@ -6487,7 +6734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45839</v>
       </c>
@@ -6519,7 +6766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45839</v>
       </c>
@@ -6551,7 +6798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45839</v>
       </c>
@@ -6583,7 +6830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45839</v>
       </c>
@@ -6615,7 +6862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45839</v>
       </c>
@@ -6647,7 +6894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45839</v>
       </c>
@@ -6679,7 +6926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45839</v>
       </c>
@@ -6711,7 +6958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45870</v>
       </c>
@@ -6743,7 +6990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45870</v>
       </c>
@@ -6775,7 +7022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45870</v>
       </c>
@@ -6807,7 +7054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45870</v>
       </c>
@@ -6839,7 +7086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45870</v>
       </c>
@@ -6871,7 +7118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45870</v>
       </c>
@@ -6903,7 +7150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45870</v>
       </c>
@@ -6935,7 +7182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H30" s="16">
         <v>45898</v>
       </c>
@@ -6955,7 +7202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H31" s="16">
         <v>45899</v>
       </c>
@@ -6975,7 +7222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H32" s="16">
         <v>45900</v>
       </c>
@@ -6995,7 +7242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33" s="16">
         <v>45839</v>
       </c>
@@ -7015,7 +7262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="8:13" ht="15.75">
+    <row r="34" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H34" s="16">
         <v>45840</v>
       </c>
@@ -7035,7 +7282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="8:13" ht="15.75">
+    <row r="35" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H35" s="16">
         <v>45841</v>
       </c>
@@ -7055,7 +7302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="8:13" ht="15.75">
+    <row r="36" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H36" s="16">
         <v>45842</v>
       </c>
@@ -7075,7 +7322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="8:13" ht="15.75">
+    <row r="37" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H37" s="16">
         <v>45843</v>
       </c>
@@ -7095,7 +7342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="8:13" ht="15.75">
+    <row r="38" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H38" s="16">
         <v>45844</v>
       </c>
@@ -7115,7 +7362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="8:13" ht="15.75">
+    <row r="39" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H39" s="16">
         <v>45845</v>
       </c>
@@ -7135,7 +7382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="8:13" ht="15.75">
+    <row r="40" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H40" s="16">
         <v>45846</v>
       </c>
@@ -7155,7 +7402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="8:13" ht="15.75">
+    <row r="41" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H41" s="16">
         <v>45847</v>
       </c>
@@ -7175,7 +7422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="8:13" ht="15.75">
+    <row r="42" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H42" s="16">
         <v>45848</v>
       </c>
@@ -7195,7 +7442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="8:13" ht="15.75">
+    <row r="43" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H43" s="16">
         <v>45849</v>
       </c>
@@ -7215,7 +7462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="8:13" ht="15.75">
+    <row r="44" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H44" s="16">
         <v>45850</v>
       </c>
@@ -7235,7 +7482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="8:13" ht="15.75">
+    <row r="45" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H45" s="16">
         <v>45851</v>
       </c>
@@ -7255,7 +7502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="8:13" ht="15.75">
+    <row r="46" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H46" s="16">
         <v>45852</v>
       </c>
@@ -7275,7 +7522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="8:13" ht="15.75">
+    <row r="47" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H47" s="16">
         <v>45853</v>
       </c>
@@ -7295,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="8:13" ht="15.75">
+    <row r="48" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H48" s="16">
         <v>45854</v>
       </c>
@@ -7315,7 +7562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="8:13" ht="15.75">
+    <row r="49" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H49" s="16">
         <v>45855</v>
       </c>
@@ -7335,7 +7582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="8:13" ht="15.75">
+    <row r="50" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H50" s="16">
         <v>45856</v>
       </c>
@@ -7355,7 +7602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="8:13" ht="15.75">
+    <row r="51" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H51" s="16">
         <v>45857</v>
       </c>
@@ -7375,7 +7622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="8:13" ht="15.75">
+    <row r="52" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H52" s="16">
         <v>45858</v>
       </c>
@@ -7395,7 +7642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="8:13" ht="15.75">
+    <row r="53" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H53" s="16">
         <v>45859</v>
       </c>
@@ -7415,7 +7662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="8:13" ht="15.75">
+    <row r="54" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H54" s="16">
         <v>45860</v>
       </c>
@@ -7435,7 +7682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="8:13" ht="15.75">
+    <row r="55" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H55" s="16">
         <v>45861</v>
       </c>
@@ -7455,7 +7702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="8:13" ht="15.75">
+    <row r="56" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H56" s="16">
         <v>45862</v>
       </c>
@@ -7475,7 +7722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="8:13" ht="15.75">
+    <row r="57" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H57" s="16">
         <v>45863</v>
       </c>
@@ -7495,7 +7742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="8:13" ht="15.75">
+    <row r="58" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H58" s="16">
         <v>45864</v>
       </c>
@@ -7515,7 +7762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="8:13" ht="15.75">
+    <row r="59" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H59" s="16">
         <v>45865</v>
       </c>
@@ -7535,7 +7782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="8:13" ht="15.75">
+    <row r="60" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H60" s="16">
         <v>45866</v>
       </c>
@@ -7555,7 +7802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="8:13" ht="15.75">
+    <row r="61" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H61" s="16">
         <v>45867</v>
       </c>
@@ -7575,7 +7822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="8:13" ht="15.75">
+    <row r="62" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H62" s="16">
         <v>45868</v>
       </c>
@@ -7595,7 +7842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="8:13" ht="15.75">
+    <row r="63" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H63" s="16">
         <v>45869</v>
       </c>
@@ -7615,7 +7862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="8:13">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H64" s="16">
         <v>45809</v>
       </c>
@@ -7635,7 +7882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="8:13" ht="15.75">
+    <row r="65" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H65" s="16">
         <v>45810</v>
       </c>
@@ -7655,7 +7902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="8:13" ht="15.75">
+    <row r="66" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H66" s="16">
         <v>45811</v>
       </c>
@@ -7675,7 +7922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="8:13" ht="15.75">
+    <row r="67" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H67" s="16">
         <v>45812</v>
       </c>
@@ -7695,7 +7942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="8:13" ht="15.75">
+    <row r="68" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H68" s="16">
         <v>45813</v>
       </c>
@@ -7715,7 +7962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="8:13" ht="15.75">
+    <row r="69" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H69" s="16">
         <v>45814</v>
       </c>
@@ -7735,7 +7982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="8:13" ht="15.75">
+    <row r="70" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H70" s="16">
         <v>45815</v>
       </c>
@@ -7755,7 +8002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="8:13" ht="15.75">
+    <row r="71" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H71" s="16">
         <v>45816</v>
       </c>
@@ -7775,7 +8022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="8:13" ht="15.75">
+    <row r="72" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H72" s="16">
         <v>45817</v>
       </c>
@@ -7795,7 +8042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="8:13" ht="15.75">
+    <row r="73" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H73" s="16">
         <v>45818</v>
       </c>
@@ -7815,7 +8062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="8:13" ht="15.75">
+    <row r="74" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H74" s="16">
         <v>45819</v>
       </c>
@@ -7835,7 +8082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="8:13" ht="15.75">
+    <row r="75" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H75" s="16">
         <v>45820</v>
       </c>
@@ -7855,7 +8102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="8:13" ht="15.75">
+    <row r="76" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H76" s="16">
         <v>45821</v>
       </c>
@@ -7875,7 +8122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="8:13" ht="15.75">
+    <row r="77" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H77" s="16">
         <v>45822</v>
       </c>
@@ -7895,7 +8142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="8:13" ht="15.75">
+    <row r="78" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H78" s="16">
         <v>45823</v>
       </c>
@@ -7915,7 +8162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="8:13" ht="15.75">
+    <row r="79" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H79" s="16">
         <v>45824</v>
       </c>
@@ -7935,7 +8182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="8:13" ht="15.75">
+    <row r="80" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H80" s="16">
         <v>45825</v>
       </c>
@@ -7955,7 +8202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="8:13" ht="15.75">
+    <row r="81" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H81" s="16">
         <v>45826</v>
       </c>
@@ -7975,7 +8222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="8:13" ht="15.75">
+    <row r="82" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H82" s="16">
         <v>45827</v>
       </c>
@@ -7995,7 +8242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="8:13" ht="15.75">
+    <row r="83" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H83" s="16">
         <v>45828</v>
       </c>
@@ -8015,7 +8262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="8:13" ht="15.75">
+    <row r="84" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H84" s="16">
         <v>45829</v>
       </c>
@@ -8035,7 +8282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="8:13" ht="15.75">
+    <row r="85" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H85" s="16">
         <v>45830</v>
       </c>
@@ -8055,7 +8302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="8:13" ht="15.75">
+    <row r="86" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H86" s="16">
         <v>45831</v>
       </c>
@@ -8075,7 +8322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="8:13" ht="15.75">
+    <row r="87" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H87" s="16">
         <v>45832</v>
       </c>
@@ -8095,7 +8342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="8:13" ht="15.75">
+    <row r="88" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H88" s="16">
         <v>45833</v>
       </c>
@@ -8115,7 +8362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="8:13" ht="15.75">
+    <row r="89" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H89" s="16">
         <v>45834</v>
       </c>
@@ -8135,7 +8382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="8:13" ht="15.75">
+    <row r="90" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H90" s="16">
         <v>45835</v>
       </c>
@@ -8155,7 +8402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="8:13" ht="15.75">
+    <row r="91" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H91" s="16">
         <v>45836</v>
       </c>
@@ -8175,7 +8422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="8:13" ht="15.75">
+    <row r="92" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H92" s="16">
         <v>45837</v>
       </c>
@@ -8195,7 +8442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="8:13" ht="15.75">
+    <row r="93" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H93" s="16">
         <v>45838</v>
       </c>
@@ -8213,6 +8460,11 @@
       </c>
       <c r="M93" s="8">
         <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H94" s="16">
+        <v>45778</v>
       </c>
     </row>
   </sheetData>
@@ -8227,11 +8479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2955F-397D-4A78-B7AC-33A4AB441B61}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -8246,7 +8498,7 @@
     <col min="187" max="187" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8275,19 +8527,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B2)</f>
-        <v>792</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B2)</f>
+        <v>830</v>
       </c>
       <c r="D2" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B2)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B2)</f>
         <v>375</v>
       </c>
       <c r="E2" s="7">
@@ -8296,11 +8548,11 @@
       </c>
       <c r="F2" s="7">
         <f>MAX(C2:D2)</f>
-        <v>792</v>
+        <v>830</v>
       </c>
       <c r="G2" s="7">
         <f>IF(C2&gt;D2,C2-D2,NA())</f>
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="H2" s="7" t="e">
         <f>IF(C2&lt;D2,D2-C2,NA())</f>
@@ -8308,20 +8560,20 @@
       </c>
       <c r="I2" s="7">
         <f>C2-D2</f>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B3)</f>
-        <v>251</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B3)</f>
+        <v>263</v>
       </c>
       <c r="D3" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B3)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B3)</f>
         <v>150</v>
       </c>
       <c r="E3" s="7">
@@ -8330,11 +8582,11 @@
       </c>
       <c r="F3" s="7">
         <f t="shared" ref="F3:F8" si="1">MAX(C3:D3)</f>
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G8" si="2">IF(C3&gt;D3,C3-D3,NA())</f>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H3" s="7" t="e">
         <f t="shared" ref="H3:H8" si="3">IF(C3&lt;D3,D3-C3,NA())</f>
@@ -8342,20 +8594,20 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" ref="I3:I8" si="4">C3-D3</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B4)</f>
-        <v>328</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B4)</f>
+        <v>175</v>
       </c>
       <c r="D4" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B4)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B4)</f>
         <v>103</v>
       </c>
       <c r="E4" s="7">
@@ -8364,11 +8616,11 @@
       </c>
       <c r="F4" s="7">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7" t="e">
         <f t="shared" si="3"/>
@@ -8376,20 +8628,20 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B5)</f>
-        <v>445</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B5)</f>
+        <v>456</v>
       </c>
       <c r="D5" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B5)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B5)</f>
         <v>102</v>
       </c>
       <c r="E5" s="7">
@@ -8398,11 +8650,11 @@
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7" t="e">
         <f t="shared" si="3"/>
@@ -8410,59 +8662,59 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" si="4"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B6)</f>
-        <v>225</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B6)</f>
+        <v>757</v>
       </c>
       <c r="D6" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B6)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B6)</f>
         <v>260</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="G6" s="7" t="e">
+        <v>757</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
+      <c r="H6" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="3"/>
-        <v>35</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B7)</f>
-        <v>453</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B7)</f>
+        <v>547</v>
       </c>
       <c r="D7" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B7)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B7)</f>
         <v>750</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
@@ -8474,48 +8726,48 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>-297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B8)</f>
-        <v>1054</v>
+        <f>SUMIFS(Table1[[Actual ]],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B8)</f>
+        <v>1264</v>
       </c>
       <c r="D8" s="7">
-        <f>SUMIFS(Table1[Traget],Table1[Months],Sheet2!$A$2,Table1[Drop Cloth],Sheet2!B8)</f>
+        <f>SUMIFS(Table1[Traget],Table1[Months],Charts!$A$2,Table1[Drop Cloth],Charts!B8)</f>
         <v>1122</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>1054</v>
+        <v>1122</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>1122</v>
-      </c>
-      <c r="G8" s="7" t="e">
+        <v>1264</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="3"/>
-        <v>68</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
@@ -8526,7 +8778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>45809</v>
       </c>
@@ -8537,7 +8789,7 @@
         <v>392.33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>45810</v>
       </c>
@@ -8548,7 +8800,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>45811</v>
       </c>
@@ -8559,7 +8811,7 @@
         <v>325.89</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>45812</v>
       </c>
@@ -8570,7 +8822,7 @@
         <v>321.06</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>45813</v>
       </c>
@@ -8581,7 +8833,7 @@
         <v>363.38</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>45814</v>
       </c>
@@ -8592,7 +8844,7 @@
         <v>329.93</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>45815</v>
       </c>
@@ -8603,7 +8855,7 @@
         <v>362.37</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>45816</v>
       </c>
@@ -8614,7 +8866,7 @@
         <v>400.43</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>45817</v>
       </c>
@@ -8625,7 +8877,7 @@
         <v>141.69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>45818</v>
       </c>
@@ -8636,7 +8888,7 @@
         <v>400.62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>45819</v>
       </c>
@@ -8647,7 +8899,7 @@
         <v>447.03</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>45820</v>
       </c>
@@ -8658,7 +8910,7 @@
         <v>458.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>45821</v>
       </c>
@@ -8669,7 +8921,7 @@
         <v>385.51</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>45822</v>
       </c>
@@ -8680,7 +8932,7 @@
         <v>420.17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>45823</v>
       </c>
@@ -8691,7 +8943,7 @@
         <v>423.44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>45824</v>
       </c>
@@ -8702,7 +8954,7 @@
         <v>457.39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>45825</v>
       </c>
@@ -8713,7 +8965,7 @@
         <v>395.42</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>45826</v>
       </c>
@@ -8724,7 +8976,7 @@
         <v>479.58</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>45827</v>
       </c>
@@ -8735,7 +8987,7 @@
         <v>470.09</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>45828</v>
       </c>
@@ -8746,7 +8998,7 @@
         <v>419.57</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>45829</v>
       </c>
@@ -8757,7 +9009,7 @@
         <v>445.51</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>45830</v>
       </c>
@@ -8768,7 +9020,7 @@
         <v>477.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>45831</v>
       </c>
@@ -8779,7 +9031,7 @@
         <v>412.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>45832</v>
       </c>
@@ -8790,7 +9042,7 @@
         <v>571.29999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45833</v>
       </c>
@@ -8801,7 +9053,7 @@
         <v>512.24</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45834</v>
       </c>
@@ -8812,7 +9064,7 @@
         <v>565.23</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>45835</v>
       </c>
@@ -8823,7 +9075,7 @@
         <v>636.04999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>45836</v>
       </c>
@@ -8834,7 +9086,7 @@
         <v>587.15</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>45837</v>
       </c>
@@ -8845,7 +9097,7 @@
         <v>582.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>45838</v>
       </c>
@@ -8856,7 +9108,7 @@
         <v>445.66</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>45839</v>
       </c>
@@ -8867,7 +9119,7 @@
         <v>560.03</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>45840</v>
       </c>
@@ -8878,7 +9130,7 @@
         <v>644.54</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>45841</v>
       </c>
@@ -8889,7 +9141,7 @@
         <v>591.34</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>45842</v>
       </c>
@@ -8900,7 +9152,7 @@
         <v>548.92999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>45843</v>
       </c>
@@ -8911,7 +9163,7 @@
         <v>711.96</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>45844</v>
       </c>
@@ -8922,7 +9174,7 @@
         <v>847.54</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>45845</v>
       </c>
@@ -8933,7 +9185,7 @@
         <v>807.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>45846</v>
       </c>
@@ -8944,7 +9196,7 @@
         <v>1176.46</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>45847</v>
       </c>
@@ -8955,7 +9207,7 @@
         <v>867.44</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>45848</v>
       </c>
@@ -8966,7 +9218,7 @@
         <v>814.33</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>45849</v>
       </c>
@@ -8977,7 +9229,7 @@
         <v>832.75</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>45850</v>
       </c>
@@ -8988,7 +9240,7 @@
         <v>731.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>45851</v>
       </c>
@@ -8999,7 +9251,7 @@
         <v>827.04</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>45852</v>
       </c>
@@ -9010,7 +9262,7 @@
         <v>754.98</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>45853</v>
       </c>
@@ -9021,7 +9273,7 @@
         <v>703.62</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>45854</v>
       </c>
@@ -9032,7 +9284,7 @@
         <v>800.93</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>45855</v>
       </c>
@@ -9043,7 +9295,7 @@
         <v>650.54</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>45856</v>
       </c>
@@ -9054,7 +9306,7 @@
         <v>642.91999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>45857</v>
       </c>
@@ -9065,7 +9317,7 @@
         <v>506.53</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>45858</v>
       </c>
@@ -9076,7 +9328,7 @@
         <v>614.95000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>45859</v>
       </c>
@@ -9087,7 +9339,7 @@
         <v>504.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>45860</v>
       </c>
@@ -9098,7 +9350,7 @@
         <v>509.06</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>45861</v>
       </c>
@@ -9109,7 +9361,7 @@
         <v>416.95</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>45862</v>
       </c>
@@ -9120,7 +9372,7 @@
         <v>412.13</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>45863</v>
       </c>
@@ -9131,7 +9383,7 @@
         <v>364.58</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>45864</v>
       </c>
@@ -9142,7 +9394,7 @@
         <v>367.78</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>45865</v>
       </c>
@@ -9153,7 +9405,7 @@
         <v>425.9</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>45866</v>
       </c>
@@ -9164,7 +9416,7 @@
         <v>452.63</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>45867</v>
       </c>
@@ -9175,7 +9427,7 @@
         <v>426.18</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>45868</v>
       </c>
@@ -9186,7 +9438,7 @@
         <v>409.69</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>45869</v>
       </c>
@@ -9197,7 +9449,7 @@
         <v>387.15</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>45870</v>
       </c>
@@ -9208,7 +9460,7 @@
         <v>485.13</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>45871</v>
       </c>
@@ -9219,7 +9471,7 @@
         <v>505.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>45872</v>
       </c>
@@ -9230,7 +9482,7 @@
         <v>614.16</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>45873</v>
       </c>
@@ -9241,7 +9493,7 @@
         <v>644.67999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>45874</v>
       </c>
@@ -9252,7 +9504,7 @@
         <v>590.14</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>45875</v>
       </c>
@@ -9263,7 +9515,7 @@
         <v>592.35</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>45876</v>
       </c>
@@ -9274,7 +9526,7 @@
         <v>571.29999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>45877</v>
       </c>
@@ -9285,7 +9537,7 @@
         <v>512.24</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>45878</v>
       </c>
@@ -9296,7 +9548,7 @@
         <v>565.23</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>45879</v>
       </c>
@@ -9307,7 +9559,7 @@
         <v>636.04999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>45880</v>
       </c>
@@ -9318,7 +9570,7 @@
         <v>587.15</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>45881</v>
       </c>
@@ -9329,7 +9581,7 @@
         <v>582.02</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>45882</v>
       </c>
@@ -9340,7 +9592,7 @@
         <v>610.96</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>45883</v>
       </c>
@@ -9351,7 +9603,7 @@
         <v>651.58000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>45884</v>
       </c>
@@ -9362,7 +9614,7 @@
         <v>614.98</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>45885</v>
       </c>
@@ -9373,7 +9625,7 @@
         <v>627.88</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>45886</v>
       </c>
@@ -9384,7 +9636,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>45887</v>
       </c>
@@ -9395,7 +9647,7 @@
         <v>521.98</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>45888</v>
       </c>
@@ -9406,7 +9658,7 @@
         <v>543.15</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>45889</v>
       </c>
@@ -9417,7 +9669,7 @@
         <v>512.24</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>45890</v>
       </c>
@@ -9428,7 +9680,7 @@
         <v>565.23</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>45891</v>
       </c>
@@ -9439,7 +9691,7 @@
         <v>636.04999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>45892</v>
       </c>
@@ -9450,7 +9702,7 @@
         <v>587.15</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>45893</v>
       </c>
@@ -9461,7 +9713,7 @@
         <v>334.34</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>45894</v>
       </c>
@@ -9472,7 +9724,7 @@
         <v>420.35</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>45895</v>
       </c>
@@ -9483,7 +9735,7 @@
         <v>395.62</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>45896</v>
       </c>
@@ -9494,7 +9746,7 @@
         <v>543.72</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>45897</v>
       </c>
@@ -9505,7 +9757,7 @@
         <v>535.54</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>45898</v>
       </c>
@@ -9516,7 +9768,7 @@
         <v>434.89</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>45899</v>
       </c>
@@ -9527,7 +9779,7 @@
         <v>319.89</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>45900</v>
       </c>
@@ -9538,7 +9790,7 @@
         <v>452.34</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>24</v>
       </c>
